--- a/Document/运维中心Redis.xlsx
+++ b/Document/运维中心Redis.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LoginServerInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,22 @@
   </si>
   <si>
     <t>ClientCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GateInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxClientCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,12 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,23 +503,25 @@
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="5.75" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,16 +532,17 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,22 +553,25 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,12 +582,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/运维中心Redis.xlsx
+++ b/Document/运维中心Redis.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="中心" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,30 @@
   </si>
   <si>
     <t>MaxClientCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[channel]:[accountId]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待登陆Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L:[channel]:[accountId]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GateID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,17 +225,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,18 +579,18 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -531,14 +602,14 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -567,7 +638,7 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -583,24 +654,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
@@ -620,7 +691,7 @@
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -639,4 +710,73 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A25341-6BCD-45B8-8BA0-3CE53980E483}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/运维中心Redis.xlsx
+++ b/Document/运维中心Redis.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中心" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,30 +131,6 @@
   </si>
   <si>
     <t>MaxClientCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[channel]:[accountId]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待登陆Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L:[channel]:[accountId]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GateID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,61 +200,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,73 +639,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A25341-6BCD-45B8-8BA0-3CE53980E483}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>